--- a/questionnaires/RBDstandardized_questionnaire_resilience.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_resilience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BF3BC3-A325-401C-A611-E229C0CDD61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5330EF83-C656-4EF2-8FAA-55CD1AE0FC5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="368">
   <si>
     <t>type</t>
   </si>
@@ -136,12 +136,6 @@
     <t xml:space="preserve">Est-ce que vous ou un membre de votre ménage avez actuellement une assurance ? </t>
   </si>
   <si>
-    <t>EpargneArgentLiquide</t>
-  </si>
-  <si>
-    <t>SouscriptionAssusrance</t>
-  </si>
-  <si>
     <t>Refus</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>Santé</t>
   </si>
   <si>
-    <t>typeAssurance</t>
-  </si>
-  <si>
     <t>typeAssusrance</t>
   </si>
   <si>
@@ -283,18 +274,12 @@
     <t>Pensez-vous disposer de suffisamment de connaissance, d'accès et de capacité d'utilisation des informations sur les marchés ?</t>
   </si>
   <si>
-    <t>capaciteprofCom</t>
-  </si>
-  <si>
     <t>Social Capital Index</t>
   </si>
   <si>
     <t>SocialCapitalIndex</t>
   </si>
   <si>
-    <t>AideIntraCommun</t>
-  </si>
-  <si>
     <t>Refuse de répondre</t>
   </si>
   <si>
@@ -304,30 +289,15 @@
     <t>select_one Socialressources</t>
   </si>
   <si>
-    <t>AideIenDehorsCommun</t>
-  </si>
-  <si>
     <t>Par rapport à il y a un an, est-ce que votre capacité à obtenir de l'aide de quelqu'un à l'intérieur ou à l'extérieur de votre village s'est :</t>
   </si>
   <si>
-    <t>evolutionRessourcesSociales</t>
-  </si>
-  <si>
     <t>select_one evolRessourcSociales</t>
   </si>
   <si>
     <t>evolRessourcSociales</t>
   </si>
   <si>
-    <t>PersAAiderCommunaute</t>
-  </si>
-  <si>
-    <t>PersAAiderEnDehorsCommunaute</t>
-  </si>
-  <si>
-    <t>ConnaissanceMembreGouvernement</t>
-  </si>
-  <si>
     <t>Un membre de la famille ou un parent</t>
   </si>
   <si>
@@ -349,21 +319,6 @@
     <t>select_one MembAyantConnuMembGvrmt or_other</t>
   </si>
   <si>
-    <t>ConnaissanceMembreNGO</t>
-  </si>
-  <si>
-    <t>PersConnaissantMembreGvrnmt</t>
-  </si>
-  <si>
-    <t>CapacitDemanderAideAGvnmt</t>
-  </si>
-  <si>
-    <t>PersConnaissantMembreNGO</t>
-  </si>
-  <si>
-    <t>CapaciteDemanerAideAubesoin</t>
-  </si>
-  <si>
     <t>Résaux sociaux</t>
   </si>
   <si>
@@ -376,33 +331,6 @@
     <t>typedeGroupe</t>
   </si>
   <si>
-    <t>ExistenceGroupeUsagerEau</t>
-  </si>
-  <si>
-    <t>ExistenceGroupeEpargne</t>
-  </si>
-  <si>
-    <t>ExistenceGroupeEntraide</t>
-  </si>
-  <si>
-    <t>ExistenceGroupeReligieux</t>
-  </si>
-  <si>
-    <t>ExistenceGroupedeMere</t>
-  </si>
-  <si>
-    <t>ExistenceGroupedeFemmes</t>
-  </si>
-  <si>
-    <t>ExistenceGroupedejeunes</t>
-  </si>
-  <si>
-    <t>ExistenceGroupeSportif</t>
-  </si>
-  <si>
-    <t>ExistenceGroupePlanification</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
@@ -427,15 +355,9 @@
     <t>select_one FrequenceAssistance</t>
   </si>
   <si>
-    <t>FairePartieGroupeAyantfourniAutreAssistance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comment appréciez-vous vos capacités à interpeller les dirigeants et les personnes influentes dans cette communité sur certaines questions que vous voulez discuter avec eux ? </t>
   </si>
   <si>
-    <t>CapaciteInterpellerLeaders</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pensez-vous que les questions que vous soulevez sont sérieusement prise en compte ? </t>
   </si>
   <si>
@@ -451,9 +373,6 @@
     <t>select_one priseEncompteQuestions</t>
   </si>
   <si>
-    <t>PriseEnCompteQuestions</t>
-  </si>
-  <si>
     <t>Score de résilience auto-évalué</t>
   </si>
   <si>
@@ -463,27 +382,6 @@
     <t>"Par rapport aux affirmations suivantes, diriez-vous que vous êtes tout à fait d'accord, d'accord, pas d'accord, pas du tout d'accord, ou ni d'accord ni pas d'accord ? "</t>
   </si>
   <si>
-    <t>sersquestion</t>
-  </si>
-  <si>
-    <t>PeutChangerSourcesRevenu</t>
-  </si>
-  <si>
-    <t>MoyensadaptationAuxStress</t>
-  </si>
-  <si>
-    <t>PeutAccederAuFinancement</t>
-  </si>
-  <si>
-    <t>SoutienPoliticiens</t>
-  </si>
-  <si>
-    <t>SoutienFamilleAmis</t>
-  </si>
-  <si>
-    <t>PreparerAuxfuturesChocs</t>
-  </si>
-  <si>
     <t>appreciationSERS</t>
   </si>
   <si>
@@ -523,9 +421,6 @@
     <t xml:space="preserve">Pensez-vous que les [actifs] créés/réhabilités ont aidé réduire les tensions au sein sur l'accès et l'utilisation des ressources naturelles dans votre communauté ? </t>
   </si>
   <si>
-    <t>reductiontension</t>
-  </si>
-  <si>
     <t>FIESSauterRepas</t>
   </si>
   <si>
@@ -538,174 +433,9 @@
     <t>table-list</t>
   </si>
   <si>
-    <t>ContraterPretespece</t>
-  </si>
-  <si>
-    <t>ExstenceAssuranceRecolte</t>
-  </si>
-  <si>
     <t>Lesquels des chocs suivant Votre ménage a-t-il subi au cours de l'année dernière (12 mois) ?</t>
   </si>
   <si>
-    <t>nbGlissementterrainEn5ans</t>
-  </si>
-  <si>
-    <t>nbSecheresseEn5ans</t>
-  </si>
-  <si>
-    <t>nbPluiesEn5ans</t>
-  </si>
-  <si>
-    <t>nbchocsEn5ans</t>
-  </si>
-  <si>
-    <t>nbMaladiesculturesEn5ans</t>
-  </si>
-  <si>
-    <t>nbRavageursCulturesEn5ans</t>
-  </si>
-  <si>
-    <t>nbMauvaisesHerbesEn5ans</t>
-  </si>
-  <si>
-    <t>nbMaladiesBetailsEn5ans</t>
-  </si>
-  <si>
-    <t>nbEpidemiesEn5ans</t>
-  </si>
-  <si>
-    <t>nbVolsDestructionBiensEn5ans</t>
-  </si>
-  <si>
-    <t>nbVolBetailsEn5ans</t>
-  </si>
-  <si>
-    <t>nbRetardsAideHumanitaireEn5ans</t>
-  </si>
-  <si>
-    <t>nbAugPrixAlimentsEn5ans</t>
-  </si>
-  <si>
-    <t>nbAugmPrixIntrantsEn5ans</t>
-  </si>
-  <si>
-    <t>nbBaissePrixAgriElevEn5ans</t>
-  </si>
-  <si>
-    <t>nbPertesTerresEn5ans</t>
-  </si>
-  <si>
-    <t>nbChomagejeuneEn5ans</t>
-  </si>
-  <si>
-    <t>nbDecesMembreMenageEn5ans</t>
-  </si>
-  <si>
-    <t>${nbPluiesEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbSecheresseEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbGlissementterrainEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbMaladiesculturesEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbRavageursCulturesEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbMauvaisesHerbesEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbMaladiesBetailsEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbEpidemiesEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbVolsDestructionBiensEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbVolBetailsEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbRetardsAideHumanitaireEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbAugPrixAlimentsEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbAugmPrixIntrantsEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbBaissePrixAgriElevEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbPertesTerresEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbChomagejeuneEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>${nbDecesMembreMenageEn5ans}&gt;0</t>
-  </si>
-  <si>
-    <t>SecheresseDerniers12mois</t>
-  </si>
-  <si>
-    <t>PluiesDerniers12mois</t>
-  </si>
-  <si>
-    <t>GlissementterrainDerniers12mois</t>
-  </si>
-  <si>
-    <t>MaladiesculturesDerniers12mois</t>
-  </si>
-  <si>
-    <t>RavageursCulturesDerniers12mois</t>
-  </si>
-  <si>
-    <t>MauvaisesHeresDerniers12mois</t>
-  </si>
-  <si>
-    <t>MaladiesBetailsDerniers12mois</t>
-  </si>
-  <si>
-    <t>EpidemiesDerniers12mois</t>
-  </si>
-  <si>
-    <t>VolsDestructionBiensDerniers12mois</t>
-  </si>
-  <si>
-    <t>VolBetailsDerniers12mois</t>
-  </si>
-  <si>
-    <t>RetardsAideHumanitaireDerniers12mois</t>
-  </si>
-  <si>
-    <t>AugPrixAlimentsDerniers12mois</t>
-  </si>
-  <si>
-    <t>AugmPrixIntrantsDerniers12mois</t>
-  </si>
-  <si>
-    <t>BaissePrixAgriElevDerniers12mois</t>
-  </si>
-  <si>
-    <t>PertesTerresDerniers12mois</t>
-  </si>
-  <si>
-    <t>ChomagejeuneDerniers12mois</t>
-  </si>
-  <si>
-    <t>DecesMembreMenageDerniers12mois</t>
-  </si>
-  <si>
-    <t>RetablissementCapacitesAlim</t>
-  </si>
-  <si>
     <t>Est-ce que vous ou quelqu'un d'autre dans votre foyer connaît personnellement un élu du gouvernement ?</t>
   </si>
   <si>
@@ -719,9 +449,6 @@
   </si>
   <si>
     <t>Pourriez-vous demander au membre du personnel de [l'AGENCE] d'aider votre famille ou votre communauté si de l'aide était nécessaire ?</t>
-  </si>
-  <si>
-    <t>PeutRebombir</t>
   </si>
   <si>
     <t>integer</t>
@@ -1481,37 +1208,313 @@
     <t>select_one Yesno</t>
   </si>
   <si>
-    <t>RetablissementCapacitealim1an</t>
-  </si>
-  <si>
-    <t>ConAccUtilisationInfoMarche</t>
-  </si>
-  <si>
-    <t>ConAccUtilisatInfoMarcheIntrant</t>
-  </si>
-  <si>
-    <t>ExistenceGroupecreditMicrofinan</t>
-  </si>
-  <si>
-    <t>ExistenceGroupeUtilisateurPat</t>
-  </si>
-  <si>
-    <t>ExistenceGrouperessourcesNat</t>
-  </si>
-  <si>
-    <t>FairePartieGroupeAyantfouTrav</t>
-  </si>
-  <si>
-    <t>FairePartieGroupeAyantfouNour</t>
-  </si>
-  <si>
-    <t>CapitalisationExperienceAnt</t>
-  </si>
-  <si>
     <t>bonn+A5:C127espratiques</t>
   </si>
   <si>
     <t>Yesno</t>
+  </si>
+  <si>
+    <t>SfinanEpargne</t>
+  </si>
+  <si>
+    <t>SfinanPrete</t>
+  </si>
+  <si>
+    <t>SfinanAssurRecolt</t>
+  </si>
+  <si>
+    <t>SfinanAssur</t>
+  </si>
+  <si>
+    <t>SfinanAssurType</t>
+  </si>
+  <si>
+    <t>nbchocs_5y</t>
+  </si>
+  <si>
+    <t>nbPluies_5y</t>
+  </si>
+  <si>
+    <t>nbSecheresse_5y</t>
+  </si>
+  <si>
+    <t>nbGlissementterrain_5y</t>
+  </si>
+  <si>
+    <t>nbMaladiescultures_5y</t>
+  </si>
+  <si>
+    <t>nbRavageursCultures_5y</t>
+  </si>
+  <si>
+    <t>nbMauvaisesHerbes_5y</t>
+  </si>
+  <si>
+    <t>nbMaladiesBetails_5y</t>
+  </si>
+  <si>
+    <t>nbEpidemies_5y</t>
+  </si>
+  <si>
+    <t>nbVolsDestructionBiens_5y</t>
+  </si>
+  <si>
+    <t>nbVolBetails_5y</t>
+  </si>
+  <si>
+    <t>nbRetardsAideHumanitaire_5y</t>
+  </si>
+  <si>
+    <t>nbAugPrixAliments_5y</t>
+  </si>
+  <si>
+    <t>nbAugmPrixIntrants_5y</t>
+  </si>
+  <si>
+    <t>nbBaissePrixAgriElev_5y</t>
+  </si>
+  <si>
+    <t>nbPertesTerres_5y</t>
+  </si>
+  <si>
+    <t>nbChomagejeune_5y</t>
+  </si>
+  <si>
+    <t>nbDecesMembreMenage_5y</t>
+  </si>
+  <si>
+    <t>Pluies_12m</t>
+  </si>
+  <si>
+    <t>Secheresse_12m</t>
+  </si>
+  <si>
+    <t>Glissementterrain_12m</t>
+  </si>
+  <si>
+    <t>Maladiescultures_12m</t>
+  </si>
+  <si>
+    <t>RavageursCultures_12m</t>
+  </si>
+  <si>
+    <t>MauvaisesHeres_12m</t>
+  </si>
+  <si>
+    <t>MaladiesBetails_12m</t>
+  </si>
+  <si>
+    <t>Epidemies_12m</t>
+  </si>
+  <si>
+    <t>VolsDestructionBiens_12m</t>
+  </si>
+  <si>
+    <t>VolBetails_12m</t>
+  </si>
+  <si>
+    <t>RetardsAideHumanitaire_12m</t>
+  </si>
+  <si>
+    <t>AugPrixAliments_12m</t>
+  </si>
+  <si>
+    <t>AugmPrixIntrants_12m</t>
+  </si>
+  <si>
+    <t>BaissePrixAgriElev_12m</t>
+  </si>
+  <si>
+    <t>PertesTerres_12m</t>
+  </si>
+  <si>
+    <t>Chomagejeune_12m</t>
+  </si>
+  <si>
+    <t>DecesMembreMenage_12m</t>
+  </si>
+  <si>
+    <t>CACBonPratiques</t>
+  </si>
+  <si>
+    <t>CACRetabCapAlim</t>
+  </si>
+  <si>
+    <t>CACRetabCapAlim_1y</t>
+  </si>
+  <si>
+    <t>CACProf</t>
+  </si>
+  <si>
+    <t>CACInfoMarche</t>
+  </si>
+  <si>
+    <t>CACUtilInfoMarche</t>
+  </si>
+  <si>
+    <t>SCIAideIntraCom</t>
+  </si>
+  <si>
+    <t>SCIAideDehorsCom</t>
+  </si>
+  <si>
+    <t>SCIPersAAiderCom</t>
+  </si>
+  <si>
+    <t>SCIPersAiderDehorsCom</t>
+  </si>
+  <si>
+    <t>SCIConMembreGvrnmt</t>
+  </si>
+  <si>
+    <t>SCIPersConMembreGvrnmt</t>
+  </si>
+  <si>
+    <t>SCICapAideGvnmt</t>
+  </si>
+  <si>
+    <t>SCIConMembreNGO</t>
+  </si>
+  <si>
+    <t>SCIPersConMembreNGO</t>
+  </si>
+  <si>
+    <t>SCIAideAubesoin</t>
+  </si>
+  <si>
+    <t>SCIEvolRessSociales</t>
+  </si>
+  <si>
+    <t>SNIEau</t>
+  </si>
+  <si>
+    <t>SNIPaturages</t>
+  </si>
+  <si>
+    <t>SNIRessourcesNat</t>
+  </si>
+  <si>
+    <t>SNICreditMicrofinan</t>
+  </si>
+  <si>
+    <t>SNIEpargne</t>
+  </si>
+  <si>
+    <t>SNIEntraide</t>
+  </si>
+  <si>
+    <t>SNIReligieux</t>
+  </si>
+  <si>
+    <t>SNIdeMere</t>
+  </si>
+  <si>
+    <t>SNIdeFemmes</t>
+  </si>
+  <si>
+    <t>SNIdeJeunes</t>
+  </si>
+  <si>
+    <t>SNISportif</t>
+  </si>
+  <si>
+    <t>SNIPlanification</t>
+  </si>
+  <si>
+    <t>SNIGroupeTrav_12m</t>
+  </si>
+  <si>
+    <t>SNIGroupeNour_12m</t>
+  </si>
+  <si>
+    <t>SNIGroupeAutre_12m</t>
+  </si>
+  <si>
+    <t>SNIInterpeller</t>
+  </si>
+  <si>
+    <t>SNIQuestions</t>
+  </si>
+  <si>
+    <t>SERSRebondir</t>
+  </si>
+  <si>
+    <t>SERSRevenue</t>
+  </si>
+  <si>
+    <t>SERSMoyen</t>
+  </si>
+  <si>
+    <t>SERSFinance</t>
+  </si>
+  <si>
+    <t>SERSPoliticiens</t>
+  </si>
+  <si>
+    <t>SERSLecons</t>
+  </si>
+  <si>
+    <t>SERSPreparerFuture</t>
+  </si>
+  <si>
+    <t>ABIreductiontension</t>
+  </si>
+  <si>
+    <t>SERSquestion</t>
+  </si>
+  <si>
+    <t>SERSFamAmis</t>
+  </si>
+  <si>
+    <t>${nbPluies_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbSecheresse_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbGlissementterrain_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbMaladiescultures_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbRavageursCultures_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbMauvaisesHerbes_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbMaladiesBetails_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbEpidemies_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbVolsDestructionBiens_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbVolBetails_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbRetardsAideHumanitaire_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbAugPrixAliments_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbAugmPrixIntrants_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbBaissePrixAgriElev_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbPertesTerres_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbChomagejeune_5y}&gt;0</t>
+  </si>
+  <si>
+    <t>${nbDecesMembreMenage_5y}&gt;0</t>
   </si>
 </sst>
 </file>
@@ -2152,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2217,119 +2220,119 @@
         <v>20</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>351</v>
+        <v>260</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2340,74 +2343,74 @@
         <v>29</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2415,10 +2418,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,608 +2429,608 @@
         <v>19</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="C20" s="13"/>
       <c r="H20" s="9" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>170</v>
+        <v>275</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>175</v>
+        <v>277</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>253</v>
+        <v>162</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>188</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>189</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>190</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>191</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>193</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>194</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>195</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>196</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>197</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>198</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>199</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>200</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>202</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>204</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3035,91 +3038,91 @@
         <v>19</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>330</v>
+        <v>239</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,164 +3130,164 @@
         <v>19</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A68" s="33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>94</v>
+        <v>315</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A72" s="33" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>95</v>
+        <v>316</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A73" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A74" s="33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A76" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>108</v>
+        <v>322</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3292,265 +3295,265 @@
         <v>19</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C80" s="10"/>
       <c r="H80" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>274</v>
+        <v>183</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>275</v>
+        <v>184</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>115</v>
+        <v>329</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>116</v>
+        <v>330</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>118</v>
+        <v>332</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>119</v>
+        <v>333</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="33" t="s">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>121</v>
+        <v>335</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="33" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="33" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A95" s="33" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A96" s="33" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A97" s="33" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A98" s="33" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3558,141 +3561,141 @@
         <v>19</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A101" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>142</v>
+        <v>349</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="33" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A103" s="33" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A104" s="33" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A105" s="33" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A106" s="33" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>147</v>
+        <v>350</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A107" s="33" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A108" s="33" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A109" s="33" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>148</v>
+        <v>347</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="33" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3700,24 +3703,24 @@
         <v>19</v>
       </c>
       <c r="B112" s="46" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="33" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="B114" s="44" t="s">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -3769,190 +3772,190 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>337</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>340</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>341</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>342</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>343</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>344</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>345</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B19">
         <v>11</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>346</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B20">
         <v>12</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>347</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B21">
         <v>13</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>348</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="B22">
         <v>14</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>349</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3960,7 +3963,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -3971,7 +3974,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3982,7 +3985,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>352</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>261</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4004,18 +4007,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>261</v>
       </c>
       <c r="B29">
         <v>888</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -4026,7 +4029,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4037,7 +4040,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
       <c r="B34">
         <v>888</v>
@@ -4048,7 +4051,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
       <c r="B35">
         <v>8888</v>
@@ -4062,772 +4065,772 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>8</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>9</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>888</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>8888</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>286</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>287</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>288</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>888</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>290</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B67">
         <v>8888</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>292</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B72">
         <v>888</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>8888</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B81">
         <v>888</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B82">
         <v>8888</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>294</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B87">
         <v>4</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B90">
         <v>7</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B91">
         <v>8</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>9</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>10</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>11</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>12</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>888</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>8888</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>304</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>305</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>306</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>308</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>311</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>312</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>313</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>5</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>327</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="B124">
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>324</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="B125">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="B127">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>329</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/RBDstandardized_questionnaire_resilience.xlsx
+++ b/questionnaires/RBDstandardized_questionnaire_resilience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boubacar.seydi\Documents\wfp\BMZ\2021\Mesure de la résilience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_Resilience_guide_FR\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943AD10F-639D-41F2-908F-1EEB7E4EBACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22B964E-A1E1-41AD-80E5-782A94A27F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="460">
   <si>
     <t>type</t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>select_one Yesno</t>
-  </si>
-  <si>
-    <t>bonn+A5:C127espratiques</t>
   </si>
   <si>
     <t>Yesno</t>
@@ -2343,21 +2340,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="65.7265625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="67.54296875" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="28.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="30" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2401,59 +2398,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>168</v>
@@ -2462,100 +2459,100 @@
         <v>154</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="G8" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="G10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="G11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>322</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>174</v>
@@ -2564,15 +2561,15 @@
         <v>154</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>175</v>
@@ -2581,15 +2578,15 @@
         <v>154</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>176</v>
@@ -2598,15 +2595,15 @@
         <v>154</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>177</v>
@@ -2615,15 +2612,15 @@
         <v>154</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>178</v>
@@ -2632,32 +2629,32 @@
         <v>154</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>327</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>328</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>180</v>
@@ -2666,195 +2663,195 @@
         <v>154</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>154</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>330</v>
       </c>
       <c r="D20" s="24"/>
       <c r="G20" s="19" t="s">
         <v>154</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="40"/>
     </row>
-    <row r="22" spans="1:10" s="41" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40"/>
     </row>
-    <row r="23" spans="1:10" s="59" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" s="59" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>185</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>154</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>185</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>185</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>154</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>185</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>154</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>185</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>154</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>185</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>154</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="67" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="40"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
     </row>
-    <row r="33" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
         <v>19</v>
       </c>
@@ -2865,24 +2862,24 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="67" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C34" s="45"/>
       <c r="H34" s="41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>104</v>
@@ -2891,12 +2888,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="34" t="s">
         <v>105</v>
@@ -2905,12 +2902,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>106</v>
@@ -2919,12 +2916,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" s="34" t="s">
         <v>107</v>
@@ -2933,12 +2930,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="34" t="s">
         <v>108</v>
@@ -2947,12 +2944,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>109</v>
@@ -2961,12 +2958,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>110</v>
@@ -2975,12 +2972,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>111</v>
@@ -2989,12 +2986,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>112</v>
@@ -3003,12 +3000,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>113</v>
@@ -3017,12 +3014,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>114</v>
@@ -3031,12 +3028,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>115</v>
@@ -3045,12 +3042,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" s="72" t="s">
         <v>116</v>
@@ -3059,26 +3056,26 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" s="72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>117</v>
@@ -3087,12 +3084,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>118</v>
@@ -3101,12 +3098,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>119</v>
@@ -3115,14 +3112,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="67" t="s">
         <v>81</v>
       </c>
       <c r="B52" s="42"/>
       <c r="C52" s="43"/>
     </row>
-    <row r="53" spans="1:10" s="41" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="41" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="67" t="s">
         <v>45</v>
       </c>
@@ -3136,12 +3133,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>30</v>
@@ -3150,15 +3147,15 @@
         <v>154</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>31</v>
@@ -3167,15 +3164,15 @@
         <v>154</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>32</v>
@@ -3184,15 +3181,15 @@
         <v>154</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>33</v>
@@ -3201,15 +3198,15 @@
         <v>154</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>34</v>
@@ -3218,15 +3215,15 @@
         <v>154</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>35</v>
@@ -3235,15 +3232,15 @@
         <v>154</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>36</v>
@@ -3252,15 +3249,15 @@
         <v>154</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>37</v>
@@ -3269,15 +3266,15 @@
         <v>154</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>38</v>
@@ -3286,15 +3283,15 @@
         <v>154</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>39</v>
@@ -3303,15 +3300,15 @@
         <v>154</v>
       </c>
       <c r="J63" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>40</v>
@@ -3320,15 +3317,15 @@
         <v>154</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>41</v>
@@ -3337,15 +3334,15 @@
         <v>154</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>46</v>
@@ -3354,15 +3351,15 @@
         <v>154</v>
       </c>
       <c r="J66" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>47</v>
@@ -3371,15 +3368,15 @@
         <v>154</v>
       </c>
       <c r="J67" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>42</v>
@@ -3388,15 +3385,15 @@
         <v>154</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>43</v>
@@ -3405,15 +3402,15 @@
         <v>154</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>44</v>
@@ -3422,16 +3419,16 @@
         <v>154</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="67" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="42"/>
     </row>
-    <row r="72" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>57</v>
       </c>
@@ -3439,13 +3436,13 @@
         <v>49</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>57</v>
       </c>
@@ -3453,13 +3450,13 @@
         <v>58</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="59" t="s">
         <v>19</v>
       </c>
@@ -3470,384 +3467,384 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="52" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G75" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G76" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C77" s="35"/>
     </row>
-    <row r="78" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C79" s="25"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B80" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C80" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="73" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="25"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="32" t="s">
+      <c r="G85" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="J82" s="19" t="s">
+      <c r="B86" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C91" s="35"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C92" s="35"/>
+    </row>
+    <row r="93" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="59" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="52" x14ac:dyDescent="0.3">
-      <c r="A83" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="39" x14ac:dyDescent="0.3">
-      <c r="A84" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="52" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B85" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C85" s="73" t="s">
-        <v>353</v>
-      </c>
-      <c r="G85" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="52" x14ac:dyDescent="0.3">
-      <c r="A86" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B86" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="G86" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="39" x14ac:dyDescent="0.3">
-      <c r="A87" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="39" x14ac:dyDescent="0.3">
-      <c r="A88" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B88" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B89" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="G89" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="39" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C91" s="35"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C92" s="35"/>
-    </row>
-    <row r="93" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="59" t="s">
+      <c r="B93" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="B93" s="59" t="s">
+      <c r="C93" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="C93" s="60" t="s">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C94" s="35"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="49" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="35"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B95" s="49" t="s">
+      <c r="C95" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="C95" s="50" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B96" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="J96" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B97" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="C97" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="J97" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B98" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="C98" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="J98" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B99" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="C99" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="J96" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="B97" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="C97" s="50" t="s">
-        <v>363</v>
-      </c>
-      <c r="J97" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="B98" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="C98" s="69" t="s">
-        <v>420</v>
-      </c>
-      <c r="J98" s="19" t="s">
+      <c r="J99" s="19" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="B99" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="C99" s="69" t="s">
-        <v>422</v>
-      </c>
-      <c r="J99" s="19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
     </row>
-    <row r="101" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C101" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D101" s="22"/>
       <c r="J101" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B102" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" s="49" t="s">
         <v>380</v>
-      </c>
-      <c r="C102" s="49" t="s">
-        <v>381</v>
       </c>
       <c r="D102" s="22"/>
       <c r="J102" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B103" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C103" s="23" t="s">
         <v>382</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>383</v>
       </c>
       <c r="D103" s="22"/>
       <c r="J103" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B104" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C104" s="23" t="s">
         <v>384</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>385</v>
       </c>
       <c r="D104" s="22"/>
       <c r="J104" s="19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D105" s="22"/>
       <c r="J105" s="19" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="48"/>
       <c r="B106" s="22"/>
       <c r="C106" s="46"/>
       <c r="D106" s="22"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107" s="36"/>
     </row>
-    <row r="108" spans="1:10" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="62" t="s">
         <v>19</v>
       </c>
@@ -3855,43 +3852,43 @@
         <v>66</v>
       </c>
       <c r="C108" s="61" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="52" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G109" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="52" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G110" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C111" s="35" t="s">
         <v>70</v>
@@ -3900,43 +3897,43 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="39" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A112" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D112" s="70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G112" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="39" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A113" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B113" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="C113" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="G113" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="26" x14ac:dyDescent="0.3">
-      <c r="A114" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B114" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="C114" s="35" t="s">
         <v>96</v>
@@ -3945,12 +3942,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="39" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C115" s="35" t="s">
         <v>97</v>
@@ -3959,15 +3956,15 @@
         <v>154</v>
       </c>
       <c r="J115" s="19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C116" s="35" t="s">
         <v>98</v>
@@ -3976,15 +3973,15 @@
         <v>154</v>
       </c>
       <c r="J116" s="19" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="39" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C117" s="35" t="s">
         <v>121</v>
@@ -3993,12 +3990,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" s="35" t="s">
         <v>99</v>
@@ -4007,15 +4004,15 @@
         <v>154</v>
       </c>
       <c r="J118" s="19" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>185</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119" s="35" t="s">
         <v>100</v>
@@ -4024,10 +4021,10 @@
         <v>154</v>
       </c>
       <c r="J119" s="19" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="54" t="s">
         <v>19</v>
       </c>
@@ -4035,15 +4032,15 @@
         <v>90</v>
       </c>
       <c r="C121" s="55" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A122" s="68" t="s">
         <v>45</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C122" s="35" t="s">
         <v>91</v>
@@ -4052,148 +4049,148 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G123" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G126" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G127" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G128" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G129" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G130" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B132" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="C132" s="38" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="68" t="s">
         <v>81</v>
       </c>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
     </row>
@@ -4209,17 +4206,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4230,39 +4227,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -4273,7 +4270,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -4284,7 +4281,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -4295,8 +4292,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -4307,7 +4304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -4318,7 +4315,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -4329,7 +4326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -4340,7 +4337,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -4351,7 +4348,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -4373,7 +4370,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -4384,7 +4381,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -4395,7 +4392,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -4406,7 +4403,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -4417,7 +4414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -4439,7 +4436,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -4450,12 +4447,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4464,9 +4461,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -4475,10 +4472,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>183</v>
       </c>
@@ -4489,7 +4486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -4500,7 +4497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>183</v>
       </c>
@@ -4511,7 +4508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -4533,7 +4530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -4544,7 +4541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>184</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -4566,7 +4563,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -4588,7 +4585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -4599,7 +4596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -4610,7 +4607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -4621,7 +4618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -4632,7 +4629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -4643,7 +4640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -4676,7 +4673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -4687,7 +4684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -4709,7 +4706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -4720,7 +4717,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -4731,7 +4728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4742,7 +4739,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -4753,7 +4750,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4764,7 +4761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -4775,7 +4772,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4797,7 +4794,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -4808,7 +4805,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -4819,7 +4816,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -4830,7 +4827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -4841,7 +4838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -4863,7 +4860,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -4874,7 +4871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4896,7 +4893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -4907,7 +4904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -4918,7 +4915,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -4929,7 +4926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -4940,7 +4937,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -4951,7 +4948,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -4962,7 +4959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -4973,7 +4970,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -4984,7 +4981,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>80</v>
       </c>
@@ -4995,7 +4992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -5006,7 +5003,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>80</v>
       </c>
@@ -5017,7 +5014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -5028,7 +5025,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>80</v>
       </c>
@@ -5039,7 +5036,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -5061,7 +5058,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -5072,7 +5069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -5083,7 +5080,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -5094,7 +5091,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -5105,7 +5102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -5116,7 +5113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -5127,7 +5124,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -5138,7 +5135,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -5149,7 +5146,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>88</v>
       </c>
@@ -5160,7 +5157,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>89</v>
       </c>
@@ -5171,7 +5168,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -5182,7 +5179,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>89</v>
       </c>
@@ -5193,7 +5190,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -5204,7 +5201,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -5215,7 +5212,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -5226,7 +5223,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -5237,7 +5234,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -5248,7 +5245,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -5259,7 +5256,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -5270,7 +5267,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -5281,7 +5278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -5303,7 +5300,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -5314,9 +5311,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -5325,416 +5322,416 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B137">
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B138">
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B139">
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B140">
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B141">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B142">
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145" s="46" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B146">
         <v>2</v>
       </c>
       <c r="C146" s="46" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
       <c r="C147" s="46" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B148">
         <v>4</v>
       </c>
       <c r="C148" s="46" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150" s="46" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
       <c r="C151" s="46" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B152">
         <v>3</v>
       </c>
       <c r="C152" s="46" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153" s="46" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B154">
         <v>5</v>
       </c>
       <c r="C154" s="46" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" s="46" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
       <c r="C157" s="46" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
       <c r="C158" s="47" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160" s="46" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
       <c r="C161" s="46" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
       <c r="C162" s="46" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B163">
         <v>4</v>
       </c>
       <c r="C163" s="46" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B164">
         <v>5</v>
       </c>
       <c r="C164" s="46" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B165">
         <v>6</v>
       </c>
       <c r="C165" s="46" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" s="46" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168" s="46" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
       <c r="C169" s="46" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B170">
         <v>4</v>
       </c>
       <c r="C170" s="46" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B171">
         <v>5</v>
       </c>
       <c r="C171" s="46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B172">
         <v>6</v>
@@ -5743,136 +5740,136 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" s="46" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="C175" s="46" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
       <c r="C176" s="46" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="C177" s="46" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B181">
         <v>3</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B182">
         <v>4</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B183">
         <v>5</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B186">
         <v>2</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B187">
         <v>3</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5889,9 +5886,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5902,7 +5899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
